--- a/EventStormingG3/PubliUco - Event Storming.xlsx
+++ b/EventStormingG3/PubliUco - Event Storming.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edy Quintero\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edy Quintero\Documents\PubliUco\EventStormingG3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86CEFEC8-77F9-4499-9AB7-8575DF1F5DA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA71A12-4637-45B1-8033-4DC873246AB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="104">
   <si>
     <t>Actor</t>
   </si>
@@ -377,6 +377,9 @@
   </si>
   <si>
     <t>Comentario Consultado</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
@@ -626,17 +629,17 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1210,6 +1213,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="G3:G5"/>
     <mergeCell ref="B3:B5"/>
@@ -1217,11 +1225,6 @@
     <mergeCell ref="D3:D5"/>
     <mergeCell ref="E3:E5"/>
     <mergeCell ref="F3:F5"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1380,38 +1383,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36" t="s">
+      <c r="F1" s="38"/>
+      <c r="G1" s="38" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="37"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
       <c r="E2" s="14" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="37"/>
+      <c r="G2" s="39"/>
     </row>
     <row r="3" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
@@ -1463,14 +1466,14 @@
       <c r="G5" s="26"/>
     </row>
     <row r="6" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="39"/>
-      <c r="D6" s="38" t="s">
+      <c r="C6" s="36"/>
+      <c r="D6" s="37" t="s">
         <v>29</v>
       </c>
       <c r="E6" s="4">
@@ -1479,37 +1482,37 @@
       <c r="F6" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G6" s="38" t="s">
+      <c r="G6" s="37" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="38"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="38"/>
+      <c r="A7" s="37"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="37"/>
       <c r="E7" s="4">
         <v>2</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="38"/>
+      <c r="G7" s="37"/>
     </row>
     <row r="8" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="38"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="38"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="37"/>
       <c r="E8" s="4">
         <v>3</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="38"/>
+      <c r="G8" s="37"/>
     </row>
     <row r="9" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
@@ -1522,23 +1525,16 @@
       <c r="D9" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="39" t="s">
+      <c r="E9" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="38"/>
+      <c r="F9" s="37"/>
       <c r="G9" s="4" t="s">
         <v>42</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="G6:G8"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A1:A2"/>
@@ -1549,6 +1545,13 @@
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="C3:C5"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="G6:G8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1662,16 +1665,16 @@
       <c r="G5" s="26"/>
     </row>
     <row r="6" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="37" t="s">
         <v>51</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="38" t="s">
+      <c r="D6" s="37" t="s">
         <v>45</v>
       </c>
       <c r="E6" s="4">
@@ -1680,37 +1683,37 @@
       <c r="F6" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="G6" s="38" t="s">
+      <c r="G6" s="37" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="38"/>
-      <c r="B7" s="38"/>
+      <c r="A7" s="37"/>
+      <c r="B7" s="37"/>
       <c r="C7" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="38"/>
+      <c r="D7" s="37"/>
       <c r="E7" s="4">
         <v>2</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="G7" s="38"/>
+      <c r="G7" s="37"/>
     </row>
     <row r="8" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="38"/>
-      <c r="B8" s="38"/>
+      <c r="A8" s="37"/>
+      <c r="B8" s="37"/>
       <c r="C8" s="40"/>
-      <c r="D8" s="38"/>
+      <c r="D8" s="37"/>
       <c r="E8" s="4">
         <v>3</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="G8" s="38"/>
+      <c r="G8" s="37"/>
     </row>
     <row r="9" spans="1:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="26" t="s">
@@ -1807,14 +1810,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E12"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="A1:A2"/>
@@ -1831,6 +1826,14 @@
     <mergeCell ref="D3:D5"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="B3:B5"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1940,10 +1943,10 @@
       <c r="D5" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E5" s="39" t="s">
+      <c r="E5" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="F5" s="39"/>
+      <c r="F5" s="36"/>
       <c r="G5" s="4" t="s">
         <v>76</v>
       </c>
@@ -1978,10 +1981,10 @@
       <c r="D7" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="39" t="s">
+      <c r="E7" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="F7" s="39"/>
+      <c r="F7" s="36"/>
       <c r="G7" s="13" t="s">
         <v>82</v>
       </c>
@@ -1992,11 +1995,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="G3:G4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="G1:G2"/>
@@ -2006,6 +2004,11 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="C3:C4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="G3:G4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2016,10 +2019,10 @@
   <sheetPr>
     <tabColor rgb="FFC6E0B4"/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2034,7 +2037,7 @@
     <col min="8" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
@@ -2055,7 +2058,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="29"/>
       <c r="B2" s="29"/>
       <c r="C2" s="29"/>
@@ -2068,7 +2071,7 @@
       </c>
       <c r="G2" s="29"/>
     </row>
-    <row r="3" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="42" t="s">
         <v>83</v>
       </c>
@@ -2091,33 +2094,33 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="38"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
+    <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="37"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
       <c r="E4" s="4">
         <v>2</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="G4" s="38"/>
-    </row>
-    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="38"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
+      <c r="G4" s="37"/>
+    </row>
+    <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="37"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
       <c r="E5" s="4">
         <v>3</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="G5" s="38"/>
-    </row>
-    <row r="6" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G5" s="37"/>
+    </row>
+    <row r="6" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
         <v>83</v>
       </c>
@@ -2140,7 +2143,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="26"/>
       <c r="B7" s="26"/>
       <c r="C7" s="26"/>
@@ -2153,17 +2156,17 @@
       </c>
       <c r="G7" s="26"/>
     </row>
-    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="38" t="s">
+    <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="D8" s="38" t="s">
+      <c r="D8" s="37" t="s">
         <v>86</v>
       </c>
       <c r="E8" s="4">
@@ -2172,24 +2175,24 @@
       <c r="F8" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="G8" s="38" t="s">
+      <c r="G8" s="37" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="38"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
+    <row r="9" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="37"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
       <c r="E9" s="4">
         <v>2</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="G9" s="38"/>
-    </row>
-    <row r="10" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G9" s="37"/>
+    </row>
+    <row r="10" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>83</v>
       </c>
@@ -2210,7 +2213,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
@@ -2225,25 +2228,35 @@
       </c>
       <c r="G11" s="26"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
     </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H14" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="17"/>
       <c r="B17" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="G3:G5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C7"/>
@@ -2252,17 +2265,12 @@
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="G8:G9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
